--- a/data/RFI_fishfeeding.xlsx
+++ b/data/RFI_fishfeeding.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magarwal\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magarwal\Desktop\Project Data\Reef Flat Inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99478A17-DC38-4961-B609-9DE1CE47A525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318AA0A8-4083-46BE-92DF-1E333F2308DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E1E120F7-89CB-4B20-9748-A307DF72617D}"/>
+    <workbookView xWindow="3045" yWindow="2505" windowWidth="21600" windowHeight="11385" xr2:uid="{E1E120F7-89CB-4B20-9748-A307DF72617D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="150">
   <si>
     <t>Fistularia commersonii</t>
   </si>
@@ -475,6 +475,15 @@
   </si>
   <si>
     <t>algivore/corallivore</t>
+  </si>
+  <si>
+    <t>Functional_Trophic_Group</t>
+  </si>
+  <si>
+    <t>secondary_consumer</t>
+  </si>
+  <si>
+    <t>primary_consumer</t>
   </si>
 </sst>
 </file>
@@ -539,10 +548,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -842,22 +847,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E84D6CC-7873-4F1B-8D55-702F8D0B5091}">
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -873,8 +879,11 @@
       <c r="E1" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -890,8 +899,11 @@
       <c r="E2">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -907,8 +919,11 @@
       <c r="E3">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -924,8 +939,11 @@
       <c r="E4">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -941,8 +959,11 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -958,8 +979,11 @@
       <c r="E6">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -975,8 +999,11 @@
       <c r="E7">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1019,11 @@
       <c r="E8">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1039,11 @@
       <c r="E9">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1026,8 +1059,11 @@
       <c r="E10">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -1043,8 +1079,11 @@
       <c r="E11">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -1060,8 +1099,11 @@
       <c r="E12">
         <v>0.56999999999999995</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -1077,8 +1119,11 @@
       <c r="E13">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -1094,8 +1139,11 @@
       <c r="E14">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -1111,8 +1159,11 @@
       <c r="E15">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -1128,8 +1179,11 @@
       <c r="E16">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -1145,8 +1199,11 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -1162,8 +1219,11 @@
       <c r="E18">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -1179,8 +1239,11 @@
       <c r="E19">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -1196,8 +1259,11 @@
       <c r="E20">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -1213,8 +1279,11 @@
       <c r="E21">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F21" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
@@ -1230,8 +1299,11 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -1247,8 +1319,11 @@
       <c r="E23">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
@@ -1264,8 +1339,11 @@
       <c r="E24">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F24" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
@@ -1281,8 +1359,11 @@
       <c r="E25">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -1298,8 +1379,11 @@
       <c r="E26">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -1315,8 +1399,11 @@
       <c r="E27">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
@@ -1332,8 +1419,11 @@
       <c r="E28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F28" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
@@ -1349,8 +1439,11 @@
       <c r="E29">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F29" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
@@ -1366,8 +1459,11 @@
       <c r="E30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F30" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -1383,8 +1479,11 @@
       <c r="E31">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F31" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
@@ -1400,8 +1499,11 @@
       <c r="E32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F32" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -1417,8 +1519,11 @@
       <c r="E33">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F33" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
@@ -1434,8 +1539,11 @@
       <c r="E34">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F34" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -1451,8 +1559,11 @@
       <c r="E35">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F35" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -1468,8 +1579,11 @@
       <c r="E36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F36" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -1485,8 +1599,11 @@
       <c r="E37">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F37" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
@@ -1502,8 +1619,11 @@
       <c r="E38">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F38" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -1519,8 +1639,11 @@
       <c r="E39">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F39" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
@@ -1536,8 +1659,11 @@
       <c r="E40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F40" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
@@ -1553,8 +1679,11 @@
       <c r="E41">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F41" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
@@ -1570,8 +1699,11 @@
       <c r="E42">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F42" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
@@ -1587,8 +1719,11 @@
       <c r="E43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F43" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
@@ -1604,8 +1739,11 @@
       <c r="E44">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F44" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
@@ -1621,8 +1759,11 @@
       <c r="E45">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
@@ -1638,8 +1779,11 @@
       <c r="E46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F46" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
@@ -1655,8 +1799,11 @@
       <c r="E47">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F47" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
@@ -1672,8 +1819,11 @@
       <c r="E48">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F48" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
@@ -1689,8 +1839,11 @@
       <c r="E49">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F49" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
@@ -1706,8 +1859,11 @@
       <c r="E50">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
@@ -1723,8 +1879,11 @@
       <c r="E51">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F51" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>51</v>
       </c>
@@ -1740,8 +1899,11 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F52" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>52</v>
       </c>
@@ -1757,8 +1919,11 @@
       <c r="E53">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F53" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>53</v>
       </c>
@@ -1774,8 +1939,11 @@
       <c r="E54">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F54" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>54</v>
       </c>
@@ -1791,8 +1959,11 @@
       <c r="E55">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F55" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>55</v>
       </c>
@@ -1808,8 +1979,11 @@
       <c r="E56">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F56" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>56</v>
       </c>
@@ -1825,8 +1999,11 @@
       <c r="E57">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F57" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>57</v>
       </c>
@@ -1842,8 +2019,11 @@
       <c r="E58">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F58" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>58</v>
       </c>
@@ -1859,8 +2039,11 @@
       <c r="E59">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F59" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>59</v>
       </c>
@@ -1876,8 +2059,11 @@
       <c r="E60">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F60" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>60</v>
       </c>
@@ -1893,8 +2079,11 @@
       <c r="E61">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F61" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>61</v>
       </c>
@@ -1910,8 +2099,11 @@
       <c r="E62">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F62" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>62</v>
       </c>
@@ -1927,8 +2119,11 @@
       <c r="E63">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F63" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>63</v>
       </c>
@@ -1944,8 +2139,11 @@
       <c r="E64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F64" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>64</v>
       </c>
@@ -1961,8 +2159,11 @@
       <c r="E65">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F65" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>65</v>
       </c>
@@ -1978,8 +2179,11 @@
       <c r="E66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F66" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>66</v>
       </c>
@@ -1995,8 +2199,11 @@
       <c r="E67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F67" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>67</v>
       </c>
@@ -2012,8 +2219,11 @@
       <c r="E68">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F68" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>68</v>
       </c>
@@ -2029,8 +2239,11 @@
       <c r="E69">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F69" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>69</v>
       </c>
@@ -2046,8 +2259,11 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F70" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>70</v>
       </c>
@@ -2063,8 +2279,11 @@
       <c r="E71">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F71" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>71</v>
       </c>
@@ -2080,8 +2299,11 @@
       <c r="E72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F72" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>72</v>
       </c>
@@ -2097,8 +2319,11 @@
       <c r="E73">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F73" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>73</v>
       </c>
@@ -2114,8 +2339,11 @@
       <c r="E74">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F74" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>74</v>
       </c>
@@ -2131,8 +2359,11 @@
       <c r="E75">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F75" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>75</v>
       </c>
@@ -2148,8 +2379,11 @@
       <c r="E76">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F76" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>76</v>
       </c>
@@ -2165,8 +2399,11 @@
       <c r="E77">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F77" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>77</v>
       </c>
@@ -2182,8 +2419,11 @@
       <c r="E78">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F78" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>78</v>
       </c>
@@ -2199,8 +2439,11 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F79" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>79</v>
       </c>
@@ -2216,8 +2459,11 @@
       <c r="E80">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F80" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>80</v>
       </c>
@@ -2233,8 +2479,11 @@
       <c r="E81">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F81" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>81</v>
       </c>
@@ -2250,8 +2499,11 @@
       <c r="E82">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F82" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>82</v>
       </c>
@@ -2267,8 +2519,11 @@
       <c r="E83">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F83" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>83</v>
       </c>
@@ -2284,8 +2539,11 @@
       <c r="E84">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F84" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>84</v>
       </c>
@@ -2301,8 +2559,11 @@
       <c r="E85">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F85" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>85</v>
       </c>
@@ -2318,8 +2579,11 @@
       <c r="E86">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F86" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>86</v>
       </c>
@@ -2335,8 +2599,11 @@
       <c r="E87">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F87" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>87</v>
       </c>
@@ -2352,8 +2619,11 @@
       <c r="E88">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F88" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>88</v>
       </c>
@@ -2369,8 +2639,11 @@
       <c r="E89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F89" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>89</v>
       </c>
@@ -2386,8 +2659,11 @@
       <c r="E90">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F90" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>90</v>
       </c>
@@ -2403,8 +2679,11 @@
       <c r="E91">
         <v>0.56999999999999995</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F91" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>91</v>
       </c>
@@ -2420,8 +2699,11 @@
       <c r="E92">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F92" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>92</v>
       </c>
@@ -2437,8 +2719,11 @@
       <c r="E93">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F93" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>93</v>
       </c>
@@ -2454,8 +2739,11 @@
       <c r="E94">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F94" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>94</v>
       </c>
@@ -2471,8 +2759,11 @@
       <c r="E95">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F95" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>95</v>
       </c>
@@ -2487,6 +2778,9 @@
       </c>
       <c r="E96">
         <v>0.42</v>
+      </c>
+      <c r="F96" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
